--- a/training_data_generator_and_ml_classifier/src/Lange-Henry-Debbie-Skaap-Jun-2016a.xlsx
+++ b/training_data_generator_and_ml_classifier/src/Lange-Henry-Debbie-Skaap-Jun-2016a.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B5BE55-4A4C-47C9-AC83-D0B9405137E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8EDCFB-E34B-47C6-B9AB-9EB2A81A1E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27390" windowHeight="11985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="7" r:id="rId1"/>
-    <sheet name="Weekly data sets" sheetId="6" r:id="rId2"/>
+    <sheet name="Raw" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Weekly data sets'!$A$1:$BH$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Raw!$A$1:$BH$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4524,9 +4527,402 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="30" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="30" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="32" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4536,15 +4932,6 @@
     <xf numFmtId="164" fontId="1" fillId="32" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="30" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="22" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4552,390 +4939,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="30" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5417,7 +5420,7 @@
   <dimension ref="A1:JW55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="HO12" sqref="HO12:HT12"/>
     </sheetView>
   </sheetViews>
@@ -5636,18 +5639,18 @@
       <c r="A1" s="23"/>
       <c r="B1" s="36"/>
       <c r="C1" s="23"/>
-      <c r="D1" s="840" t="s">
+      <c r="D1" s="869" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="840"/>
-      <c r="F1" s="840"/>
-      <c r="G1" s="840"/>
-      <c r="H1" s="840"/>
-      <c r="I1" s="840"/>
-      <c r="J1" s="840"/>
-      <c r="K1" s="840"/>
-      <c r="L1" s="840"/>
-      <c r="M1" s="840"/>
+      <c r="E1" s="869"/>
+      <c r="F1" s="869"/>
+      <c r="G1" s="869"/>
+      <c r="H1" s="869"/>
+      <c r="I1" s="869"/>
+      <c r="J1" s="869"/>
+      <c r="K1" s="869"/>
+      <c r="L1" s="869"/>
+      <c r="M1" s="869"/>
       <c r="N1" s="31"/>
       <c r="O1" s="23"/>
       <c r="P1" s="6"/>
@@ -5687,13 +5690,13 @@
       <c r="BP1" s="35"/>
       <c r="BQ1" s="35"/>
       <c r="BR1" s="35"/>
-      <c r="CM1" s="853" t="s">
+      <c r="CM1" s="882" t="s">
         <v>149</v>
       </c>
-      <c r="CN1" s="853"/>
-      <c r="CO1" s="853"/>
-      <c r="CP1" s="853"/>
-      <c r="CQ1" s="853"/>
+      <c r="CN1" s="882"/>
+      <c r="CO1" s="882"/>
+      <c r="CP1" s="882"/>
+      <c r="CQ1" s="882"/>
     </row>
     <row r="2" spans="1:283" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
@@ -5748,384 +5751,384 @@
       <c r="BP2" s="35"/>
       <c r="BQ2" s="35"/>
       <c r="BR2" s="35"/>
-      <c r="BY2" s="823" t="s">
+      <c r="BY2" s="905" t="s">
         <v>142</v>
       </c>
-      <c r="BZ2" s="823"/>
-      <c r="CA2" s="823"/>
+      <c r="BZ2" s="905"/>
+      <c r="CA2" s="905"/>
     </row>
     <row r="3" spans="1:283" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="844" t="s">
+      <c r="D3" s="873" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="845"/>
-      <c r="F3" s="845"/>
-      <c r="G3" s="845"/>
-      <c r="H3" s="845"/>
-      <c r="I3" s="845"/>
-      <c r="J3" s="846"/>
-      <c r="K3" s="841" t="s">
+      <c r="E3" s="874"/>
+      <c r="F3" s="874"/>
+      <c r="G3" s="874"/>
+      <c r="H3" s="874"/>
+      <c r="I3" s="874"/>
+      <c r="J3" s="875"/>
+      <c r="K3" s="870" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="842"/>
-      <c r="M3" s="842"/>
-      <c r="N3" s="842"/>
-      <c r="O3" s="843"/>
-      <c r="P3" s="847" t="s">
+      <c r="L3" s="871"/>
+      <c r="M3" s="871"/>
+      <c r="N3" s="871"/>
+      <c r="O3" s="872"/>
+      <c r="P3" s="876" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="848"/>
-      <c r="R3" s="848"/>
-      <c r="S3" s="848"/>
-      <c r="T3" s="849"/>
-      <c r="U3" s="850" t="s">
+      <c r="Q3" s="877"/>
+      <c r="R3" s="877"/>
+      <c r="S3" s="877"/>
+      <c r="T3" s="878"/>
+      <c r="U3" s="879" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="851"/>
-      <c r="W3" s="851"/>
-      <c r="X3" s="851"/>
-      <c r="Y3" s="852"/>
-      <c r="Z3" s="857" t="s">
+      <c r="V3" s="880"/>
+      <c r="W3" s="880"/>
+      <c r="X3" s="880"/>
+      <c r="Y3" s="881"/>
+      <c r="Z3" s="886" t="s">
         <v>91</v>
       </c>
-      <c r="AA3" s="858"/>
-      <c r="AB3" s="858"/>
-      <c r="AC3" s="858"/>
-      <c r="AD3" s="859"/>
-      <c r="AE3" s="877" t="s">
+      <c r="AA3" s="887"/>
+      <c r="AB3" s="887"/>
+      <c r="AC3" s="887"/>
+      <c r="AD3" s="888"/>
+      <c r="AE3" s="839" t="s">
         <v>75</v>
       </c>
-      <c r="AF3" s="878"/>
-      <c r="AG3" s="878"/>
-      <c r="AH3" s="878"/>
-      <c r="AI3" s="879"/>
-      <c r="AJ3" s="869" t="s">
+      <c r="AF3" s="840"/>
+      <c r="AG3" s="840"/>
+      <c r="AH3" s="840"/>
+      <c r="AI3" s="841"/>
+      <c r="AJ3" s="898" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="870"/>
-      <c r="AL3" s="870"/>
-      <c r="AM3" s="870"/>
-      <c r="AN3" s="871"/>
-      <c r="AO3" s="866" t="s">
+      <c r="AK3" s="899"/>
+      <c r="AL3" s="899"/>
+      <c r="AM3" s="899"/>
+      <c r="AN3" s="900"/>
+      <c r="AO3" s="895" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="867"/>
-      <c r="AQ3" s="867"/>
-      <c r="AR3" s="867"/>
-      <c r="AS3" s="868"/>
-      <c r="AT3" s="863" t="s">
+      <c r="AP3" s="896"/>
+      <c r="AQ3" s="896"/>
+      <c r="AR3" s="896"/>
+      <c r="AS3" s="897"/>
+      <c r="AT3" s="892" t="s">
         <v>37</v>
       </c>
-      <c r="AU3" s="864"/>
-      <c r="AV3" s="864"/>
-      <c r="AW3" s="864"/>
-      <c r="AX3" s="865"/>
-      <c r="AY3" s="901" t="s">
+      <c r="AU3" s="893"/>
+      <c r="AV3" s="893"/>
+      <c r="AW3" s="893"/>
+      <c r="AX3" s="894"/>
+      <c r="AY3" s="863" t="s">
         <v>54</v>
       </c>
-      <c r="AZ3" s="902"/>
-      <c r="BA3" s="902"/>
-      <c r="BB3" s="902"/>
-      <c r="BC3" s="903"/>
-      <c r="BD3" s="898" t="s">
+      <c r="AZ3" s="864"/>
+      <c r="BA3" s="864"/>
+      <c r="BB3" s="864"/>
+      <c r="BC3" s="865"/>
+      <c r="BD3" s="860" t="s">
         <v>116</v>
       </c>
-      <c r="BE3" s="899"/>
-      <c r="BF3" s="899"/>
-      <c r="BG3" s="899"/>
-      <c r="BH3" s="900"/>
-      <c r="BI3" s="880" t="s">
+      <c r="BE3" s="861"/>
+      <c r="BF3" s="861"/>
+      <c r="BG3" s="861"/>
+      <c r="BH3" s="862"/>
+      <c r="BI3" s="842" t="s">
         <v>117</v>
       </c>
-      <c r="BJ3" s="881"/>
-      <c r="BK3" s="881"/>
-      <c r="BL3" s="881"/>
-      <c r="BM3" s="882"/>
-      <c r="BN3" s="872" t="s">
+      <c r="BJ3" s="843"/>
+      <c r="BK3" s="843"/>
+      <c r="BL3" s="843"/>
+      <c r="BM3" s="844"/>
+      <c r="BN3" s="901" t="s">
         <v>121</v>
       </c>
-      <c r="BO3" s="873"/>
-      <c r="BP3" s="873"/>
-      <c r="BQ3" s="873"/>
-      <c r="BR3" s="874"/>
-      <c r="BS3" s="904" t="s">
+      <c r="BO3" s="902"/>
+      <c r="BP3" s="902"/>
+      <c r="BQ3" s="902"/>
+      <c r="BR3" s="903"/>
+      <c r="BS3" s="866" t="s">
         <v>139</v>
       </c>
-      <c r="BT3" s="905"/>
-      <c r="BU3" s="905"/>
-      <c r="BV3" s="905"/>
-      <c r="BW3" s="906"/>
-      <c r="BX3" s="860" t="s">
+      <c r="BT3" s="867"/>
+      <c r="BU3" s="867"/>
+      <c r="BV3" s="867"/>
+      <c r="BW3" s="868"/>
+      <c r="BX3" s="889" t="s">
         <v>141</v>
       </c>
-      <c r="BY3" s="861"/>
-      <c r="BZ3" s="861"/>
-      <c r="CA3" s="861"/>
-      <c r="CB3" s="862"/>
-      <c r="CC3" s="892" t="s">
+      <c r="BY3" s="890"/>
+      <c r="BZ3" s="890"/>
+      <c r="CA3" s="890"/>
+      <c r="CB3" s="891"/>
+      <c r="CC3" s="854" t="s">
         <v>143</v>
       </c>
-      <c r="CD3" s="893"/>
-      <c r="CE3" s="893"/>
-      <c r="CF3" s="893"/>
-      <c r="CG3" s="894"/>
-      <c r="CH3" s="886" t="s">
+      <c r="CD3" s="855"/>
+      <c r="CE3" s="855"/>
+      <c r="CF3" s="855"/>
+      <c r="CG3" s="856"/>
+      <c r="CH3" s="848" t="s">
         <v>146</v>
       </c>
-      <c r="CI3" s="887"/>
-      <c r="CJ3" s="887"/>
-      <c r="CK3" s="887"/>
-      <c r="CL3" s="888"/>
-      <c r="CM3" s="837" t="s">
+      <c r="CI3" s="849"/>
+      <c r="CJ3" s="849"/>
+      <c r="CK3" s="849"/>
+      <c r="CL3" s="850"/>
+      <c r="CM3" s="915" t="s">
         <v>147</v>
       </c>
-      <c r="CN3" s="838"/>
-      <c r="CO3" s="838"/>
-      <c r="CP3" s="838"/>
-      <c r="CQ3" s="839"/>
-      <c r="CR3" s="895" t="s">
+      <c r="CN3" s="916"/>
+      <c r="CO3" s="916"/>
+      <c r="CP3" s="916"/>
+      <c r="CQ3" s="917"/>
+      <c r="CR3" s="857" t="s">
         <v>150</v>
       </c>
-      <c r="CS3" s="896"/>
-      <c r="CT3" s="896"/>
-      <c r="CU3" s="896"/>
-      <c r="CV3" s="897"/>
-      <c r="CW3" s="883" t="s">
+      <c r="CS3" s="858"/>
+      <c r="CT3" s="858"/>
+      <c r="CU3" s="858"/>
+      <c r="CV3" s="859"/>
+      <c r="CW3" s="845" t="s">
         <v>151</v>
       </c>
-      <c r="CX3" s="884"/>
-      <c r="CY3" s="884"/>
-      <c r="CZ3" s="884"/>
-      <c r="DA3" s="885"/>
-      <c r="DB3" s="854" t="s">
+      <c r="CX3" s="846"/>
+      <c r="CY3" s="846"/>
+      <c r="CZ3" s="846"/>
+      <c r="DA3" s="847"/>
+      <c r="DB3" s="883" t="s">
         <v>160</v>
       </c>
-      <c r="DC3" s="855"/>
-      <c r="DD3" s="855"/>
-      <c r="DE3" s="855"/>
-      <c r="DF3" s="856"/>
-      <c r="DG3" s="889" t="s">
+      <c r="DC3" s="884"/>
+      <c r="DD3" s="884"/>
+      <c r="DE3" s="884"/>
+      <c r="DF3" s="885"/>
+      <c r="DG3" s="851" t="s">
         <v>161</v>
       </c>
-      <c r="DH3" s="890"/>
-      <c r="DI3" s="890"/>
-      <c r="DJ3" s="890"/>
-      <c r="DK3" s="890"/>
-      <c r="DL3" s="891"/>
-      <c r="DM3" s="907" t="s">
+      <c r="DH3" s="852"/>
+      <c r="DI3" s="852"/>
+      <c r="DJ3" s="852"/>
+      <c r="DK3" s="852"/>
+      <c r="DL3" s="853"/>
+      <c r="DM3" s="800" t="s">
         <v>188</v>
       </c>
-      <c r="DN3" s="908"/>
-      <c r="DO3" s="908"/>
-      <c r="DP3" s="908"/>
-      <c r="DQ3" s="909"/>
+      <c r="DN3" s="801"/>
+      <c r="DO3" s="801"/>
+      <c r="DP3" s="801"/>
+      <c r="DQ3" s="802"/>
       <c r="DR3" s="395"/>
-      <c r="DS3" s="921" t="s">
+      <c r="DS3" s="817" t="s">
         <v>196</v>
       </c>
-      <c r="DT3" s="908"/>
-      <c r="DU3" s="908"/>
-      <c r="DV3" s="908"/>
-      <c r="DW3" s="909"/>
+      <c r="DT3" s="801"/>
+      <c r="DU3" s="801"/>
+      <c r="DV3" s="801"/>
+      <c r="DW3" s="802"/>
       <c r="DX3" s="463"/>
-      <c r="DY3" s="907" t="s">
+      <c r="DY3" s="800" t="s">
         <v>215</v>
       </c>
-      <c r="DZ3" s="936"/>
-      <c r="EA3" s="936"/>
-      <c r="EB3" s="936"/>
-      <c r="EC3" s="937"/>
+      <c r="DZ3" s="836"/>
+      <c r="EA3" s="836"/>
+      <c r="EB3" s="836"/>
+      <c r="EC3" s="837"/>
       <c r="ED3" s="467"/>
       <c r="EE3" s="468"/>
-      <c r="EF3" s="828" t="s">
+      <c r="EF3" s="909" t="s">
         <v>253</v>
       </c>
-      <c r="EG3" s="829"/>
-      <c r="EH3" s="829"/>
-      <c r="EI3" s="829"/>
-      <c r="EJ3" s="830"/>
+      <c r="EG3" s="910"/>
+      <c r="EH3" s="910"/>
+      <c r="EI3" s="910"/>
+      <c r="EJ3" s="911"/>
       <c r="EK3" s="484"/>
       <c r="EL3" s="485"/>
-      <c r="EM3" s="933" t="s">
+      <c r="EM3" s="833" t="s">
         <v>256</v>
       </c>
-      <c r="EN3" s="934"/>
-      <c r="EO3" s="934"/>
-      <c r="EP3" s="934"/>
-      <c r="EQ3" s="935"/>
+      <c r="EN3" s="834"/>
+      <c r="EO3" s="834"/>
+      <c r="EP3" s="834"/>
+      <c r="EQ3" s="835"/>
       <c r="ER3" s="513"/>
-      <c r="ES3" s="930" t="s">
+      <c r="ES3" s="830" t="s">
         <v>294</v>
       </c>
-      <c r="ET3" s="931"/>
-      <c r="EU3" s="931"/>
-      <c r="EV3" s="931"/>
-      <c r="EW3" s="932"/>
+      <c r="ET3" s="831"/>
+      <c r="EU3" s="831"/>
+      <c r="EV3" s="831"/>
+      <c r="EW3" s="832"/>
       <c r="EX3" s="534"/>
-      <c r="EY3" s="927" t="s">
+      <c r="EY3" s="827" t="s">
         <v>321</v>
       </c>
-      <c r="EZ3" s="928"/>
-      <c r="FA3" s="928"/>
-      <c r="FB3" s="928"/>
-      <c r="FC3" s="929"/>
+      <c r="EZ3" s="828"/>
+      <c r="FA3" s="828"/>
+      <c r="FB3" s="828"/>
+      <c r="FC3" s="829"/>
       <c r="FD3" s="554"/>
-      <c r="FE3" s="923" t="s">
+      <c r="FE3" s="821" t="s">
         <v>351</v>
       </c>
-      <c r="FF3" s="924"/>
-      <c r="FG3" s="924"/>
-      <c r="FH3" s="924"/>
-      <c r="FI3" s="924"/>
-      <c r="FJ3" s="925"/>
-      <c r="FK3" s="817" t="s">
+      <c r="FF3" s="822"/>
+      <c r="FG3" s="822"/>
+      <c r="FH3" s="822"/>
+      <c r="FI3" s="822"/>
+      <c r="FJ3" s="823"/>
+      <c r="FK3" s="824" t="s">
         <v>371</v>
       </c>
-      <c r="FL3" s="818"/>
-      <c r="FM3" s="818"/>
-      <c r="FN3" s="818"/>
-      <c r="FO3" s="818"/>
-      <c r="FP3" s="926"/>
-      <c r="FQ3" s="826" t="s">
+      <c r="FL3" s="825"/>
+      <c r="FM3" s="825"/>
+      <c r="FN3" s="825"/>
+      <c r="FO3" s="825"/>
+      <c r="FP3" s="826"/>
+      <c r="FQ3" s="818" t="s">
         <v>392</v>
       </c>
-      <c r="FR3" s="827"/>
-      <c r="FS3" s="827"/>
-      <c r="FT3" s="827"/>
-      <c r="FU3" s="827"/>
-      <c r="FV3" s="922"/>
-      <c r="FW3" s="913" t="s">
+      <c r="FR3" s="819"/>
+      <c r="FS3" s="819"/>
+      <c r="FT3" s="819"/>
+      <c r="FU3" s="819"/>
+      <c r="FV3" s="820"/>
+      <c r="FW3" s="809" t="s">
         <v>407</v>
       </c>
-      <c r="FX3" s="914"/>
-      <c r="FY3" s="914"/>
-      <c r="FZ3" s="914"/>
-      <c r="GA3" s="914"/>
-      <c r="GB3" s="915"/>
-      <c r="GC3" s="834" t="s">
+      <c r="FX3" s="810"/>
+      <c r="FY3" s="810"/>
+      <c r="FZ3" s="810"/>
+      <c r="GA3" s="810"/>
+      <c r="GB3" s="811"/>
+      <c r="GC3" s="798" t="s">
         <v>421</v>
       </c>
-      <c r="GD3" s="835"/>
-      <c r="GE3" s="835"/>
-      <c r="GF3" s="835"/>
-      <c r="GG3" s="835"/>
-      <c r="GH3" s="836"/>
-      <c r="GI3" s="916" t="s">
+      <c r="GD3" s="799"/>
+      <c r="GE3" s="799"/>
+      <c r="GF3" s="799"/>
+      <c r="GG3" s="799"/>
+      <c r="GH3" s="914"/>
+      <c r="GI3" s="812" t="s">
         <v>428</v>
       </c>
-      <c r="GJ3" s="917"/>
-      <c r="GK3" s="917"/>
-      <c r="GL3" s="917"/>
-      <c r="GM3" s="917"/>
-      <c r="GN3" s="917"/>
-      <c r="GO3" s="918"/>
-      <c r="GP3" s="834" t="s">
+      <c r="GJ3" s="813"/>
+      <c r="GK3" s="813"/>
+      <c r="GL3" s="813"/>
+      <c r="GM3" s="813"/>
+      <c r="GN3" s="813"/>
+      <c r="GO3" s="814"/>
+      <c r="GP3" s="798" t="s">
         <v>445</v>
       </c>
-      <c r="GQ3" s="835"/>
-      <c r="GR3" s="835"/>
-      <c r="GS3" s="835"/>
-      <c r="GT3" s="835"/>
-      <c r="GU3" s="835"/>
-      <c r="GV3" s="919" t="s">
+      <c r="GQ3" s="799"/>
+      <c r="GR3" s="799"/>
+      <c r="GS3" s="799"/>
+      <c r="GT3" s="799"/>
+      <c r="GU3" s="799"/>
+      <c r="GV3" s="815" t="s">
         <v>449</v>
       </c>
-      <c r="GW3" s="920"/>
-      <c r="GX3" s="920"/>
-      <c r="GY3" s="920"/>
-      <c r="GZ3" s="920"/>
-      <c r="HA3" s="920"/>
-      <c r="HB3" s="831" t="s">
+      <c r="GW3" s="816"/>
+      <c r="GX3" s="816"/>
+      <c r="GY3" s="816"/>
+      <c r="GZ3" s="816"/>
+      <c r="HA3" s="816"/>
+      <c r="HB3" s="912" t="s">
         <v>457</v>
       </c>
-      <c r="HC3" s="832"/>
-      <c r="HD3" s="832"/>
-      <c r="HE3" s="832"/>
-      <c r="HF3" s="832"/>
-      <c r="HG3" s="832"/>
-      <c r="HH3" s="826" t="s">
+      <c r="HC3" s="913"/>
+      <c r="HD3" s="913"/>
+      <c r="HE3" s="913"/>
+      <c r="HF3" s="913"/>
+      <c r="HG3" s="913"/>
+      <c r="HH3" s="818" t="s">
         <v>463</v>
       </c>
-      <c r="HI3" s="827"/>
-      <c r="HJ3" s="827"/>
-      <c r="HK3" s="827"/>
-      <c r="HL3" s="827"/>
-      <c r="HM3" s="827"/>
+      <c r="HI3" s="819"/>
+      <c r="HJ3" s="819"/>
+      <c r="HK3" s="819"/>
+      <c r="HL3" s="819"/>
+      <c r="HM3" s="819"/>
       <c r="HN3" s="782"/>
-      <c r="HO3" s="817" t="s">
+      <c r="HO3" s="824" t="s">
         <v>480</v>
       </c>
-      <c r="HP3" s="818"/>
-      <c r="HQ3" s="818"/>
-      <c r="HR3" s="818"/>
-      <c r="HS3" s="818"/>
-      <c r="HT3" s="818"/>
+      <c r="HP3" s="825"/>
+      <c r="HQ3" s="825"/>
+      <c r="HR3" s="825"/>
+      <c r="HS3" s="825"/>
+      <c r="HT3" s="825"/>
       <c r="HU3" s="782"/>
-      <c r="HV3" s="815" t="s">
+      <c r="HV3" s="929" t="s">
         <v>487</v>
       </c>
-      <c r="HW3" s="816"/>
-      <c r="HX3" s="816"/>
-      <c r="HY3" s="816"/>
-      <c r="HZ3" s="816"/>
-      <c r="IA3" s="816"/>
+      <c r="HW3" s="930"/>
+      <c r="HX3" s="930"/>
+      <c r="HY3" s="930"/>
+      <c r="HZ3" s="930"/>
+      <c r="IA3" s="930"/>
       <c r="IB3" s="782"/>
-      <c r="IC3" s="813" t="s">
+      <c r="IC3" s="927" t="s">
         <v>491</v>
       </c>
-      <c r="ID3" s="814"/>
-      <c r="IE3" s="814"/>
-      <c r="IF3" s="814"/>
-      <c r="IG3" s="814"/>
-      <c r="IH3" s="814"/>
-      <c r="II3" s="808" t="s">
+      <c r="ID3" s="928"/>
+      <c r="IE3" s="928"/>
+      <c r="IF3" s="928"/>
+      <c r="IG3" s="928"/>
+      <c r="IH3" s="928"/>
+      <c r="II3" s="922" t="s">
         <v>496</v>
       </c>
-      <c r="IJ3" s="809"/>
-      <c r="IK3" s="809"/>
-      <c r="IL3" s="809"/>
-      <c r="IM3" s="809"/>
-      <c r="IN3" s="809"/>
-      <c r="IO3" s="810" t="s">
+      <c r="IJ3" s="923"/>
+      <c r="IK3" s="923"/>
+      <c r="IL3" s="923"/>
+      <c r="IM3" s="923"/>
+      <c r="IN3" s="923"/>
+      <c r="IO3" s="924" t="s">
         <v>497</v>
       </c>
-      <c r="IP3" s="811"/>
-      <c r="IQ3" s="811"/>
-      <c r="IR3" s="811"/>
-      <c r="IS3" s="812"/>
-      <c r="IT3" s="798"/>
-      <c r="IU3" s="798"/>
-      <c r="IV3" s="798"/>
-      <c r="IW3" s="798"/>
-      <c r="IX3" s="798"/>
-      <c r="IY3" s="798"/>
-      <c r="IZ3" s="798"/>
-      <c r="JA3" s="798"/>
-      <c r="JB3" s="798"/>
-      <c r="JC3" s="798"/>
-      <c r="JD3" s="798"/>
-      <c r="JE3" s="798"/>
-      <c r="JF3" s="798"/>
-      <c r="JG3" s="798"/>
-      <c r="JH3" s="798"/>
-      <c r="JI3" s="798"/>
-      <c r="JJ3" s="798"/>
-      <c r="JK3" s="798"/>
-      <c r="JL3" s="798"/>
-      <c r="JM3" s="798"/>
-      <c r="JN3" s="798"/>
-      <c r="JO3" s="798"/>
-      <c r="JP3" s="798"/>
-      <c r="JQ3" s="798"/>
-      <c r="JR3" s="798"/>
-      <c r="JS3" s="798"/>
-      <c r="JT3" s="798"/>
-      <c r="JU3" s="798"/>
-      <c r="JV3" s="798"/>
-      <c r="JW3" s="798"/>
+      <c r="IP3" s="925"/>
+      <c r="IQ3" s="925"/>
+      <c r="IR3" s="925"/>
+      <c r="IS3" s="926"/>
+      <c r="IT3" s="921"/>
+      <c r="IU3" s="921"/>
+      <c r="IV3" s="921"/>
+      <c r="IW3" s="921"/>
+      <c r="IX3" s="921"/>
+      <c r="IY3" s="921"/>
+      <c r="IZ3" s="921"/>
+      <c r="JA3" s="921"/>
+      <c r="JB3" s="921"/>
+      <c r="JC3" s="921"/>
+      <c r="JD3" s="921"/>
+      <c r="JE3" s="921"/>
+      <c r="JF3" s="921"/>
+      <c r="JG3" s="921"/>
+      <c r="JH3" s="921"/>
+      <c r="JI3" s="921"/>
+      <c r="JJ3" s="921"/>
+      <c r="JK3" s="921"/>
+      <c r="JL3" s="921"/>
+      <c r="JM3" s="921"/>
+      <c r="JN3" s="921"/>
+      <c r="JO3" s="921"/>
+      <c r="JP3" s="921"/>
+      <c r="JQ3" s="921"/>
+      <c r="JR3" s="921"/>
+      <c r="JS3" s="921"/>
+      <c r="JT3" s="921"/>
+      <c r="JU3" s="921"/>
+      <c r="JV3" s="921"/>
+      <c r="JW3" s="921"/>
     </row>
     <row r="4" spans="1:283" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -8590,14 +8593,14 @@
         <v>167</v>
       </c>
       <c r="HN7" s="789"/>
-      <c r="HO7" s="802" t="s">
+      <c r="HO7" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP7" s="803"/>
-      <c r="HQ7" s="803"/>
-      <c r="HR7" s="819"/>
-      <c r="HS7" s="803"/>
-      <c r="HT7" s="804"/>
+      <c r="HP7" s="919"/>
+      <c r="HQ7" s="919"/>
+      <c r="HR7" s="931"/>
+      <c r="HS7" s="919"/>
+      <c r="HT7" s="920"/>
       <c r="HU7" s="786" t="s">
         <v>518</v>
       </c>
@@ -9295,14 +9298,14 @@
       <c r="HG8" s="692" t="s">
         <v>320</v>
       </c>
-      <c r="HH8" s="820" t="s">
+      <c r="HH8" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI8" s="821"/>
-      <c r="HJ8" s="821"/>
-      <c r="HK8" s="821"/>
-      <c r="HL8" s="821"/>
-      <c r="HM8" s="822"/>
+      <c r="HI8" s="907"/>
+      <c r="HJ8" s="907"/>
+      <c r="HK8" s="907"/>
+      <c r="HL8" s="907"/>
+      <c r="HM8" s="908"/>
       <c r="HN8" s="786" t="s">
         <v>505</v>
       </c>
@@ -10037,14 +10040,14 @@
         <v>465</v>
       </c>
       <c r="HN9" s="789"/>
-      <c r="HO9" s="802" t="s">
+      <c r="HO9" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP9" s="803"/>
-      <c r="HQ9" s="803"/>
-      <c r="HR9" s="803"/>
-      <c r="HS9" s="803"/>
-      <c r="HT9" s="804"/>
+      <c r="HP9" s="919"/>
+      <c r="HQ9" s="919"/>
+      <c r="HR9" s="919"/>
+      <c r="HS9" s="919"/>
+      <c r="HT9" s="920"/>
       <c r="HU9" s="793"/>
       <c r="HV9" s="710">
         <v>78.5</v>
@@ -10065,14 +10068,14 @@
       <c r="IB9" s="786" t="s">
         <v>527</v>
       </c>
-      <c r="IC9" s="805" t="s">
+      <c r="IC9" s="935" t="s">
         <v>493</v>
       </c>
-      <c r="ID9" s="806"/>
-      <c r="IE9" s="806"/>
-      <c r="IF9" s="806"/>
-      <c r="IG9" s="806"/>
-      <c r="IH9" s="807"/>
+      <c r="ID9" s="936"/>
+      <c r="IE9" s="936"/>
+      <c r="IF9" s="936"/>
+      <c r="IG9" s="936"/>
+      <c r="IH9" s="937"/>
       <c r="II9" s="729">
         <v>74</v>
       </c>
@@ -10772,14 +10775,14 @@
         <v>466</v>
       </c>
       <c r="HN10" s="789"/>
-      <c r="HO10" s="802" t="s">
+      <c r="HO10" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP10" s="803"/>
-      <c r="HQ10" s="803"/>
-      <c r="HR10" s="803"/>
-      <c r="HS10" s="803"/>
-      <c r="HT10" s="804"/>
+      <c r="HP10" s="919"/>
+      <c r="HQ10" s="919"/>
+      <c r="HR10" s="919"/>
+      <c r="HS10" s="919"/>
+      <c r="HT10" s="920"/>
       <c r="HU10" s="786" t="s">
         <v>519</v>
       </c>
@@ -12238,34 +12241,34 @@
         <v>467</v>
       </c>
       <c r="HN12" s="789"/>
-      <c r="HO12" s="802" t="s">
+      <c r="HO12" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP12" s="803"/>
-      <c r="HQ12" s="803"/>
-      <c r="HR12" s="803"/>
-      <c r="HS12" s="803"/>
-      <c r="HT12" s="804"/>
+      <c r="HP12" s="919"/>
+      <c r="HQ12" s="919"/>
+      <c r="HR12" s="919"/>
+      <c r="HS12" s="919"/>
+      <c r="HT12" s="920"/>
       <c r="HU12" s="788" t="s">
         <v>520</v>
       </c>
-      <c r="HV12" s="799" t="s">
+      <c r="HV12" s="932" t="s">
         <v>488</v>
       </c>
-      <c r="HW12" s="800"/>
-      <c r="HX12" s="800"/>
-      <c r="HY12" s="800"/>
-      <c r="HZ12" s="800"/>
-      <c r="IA12" s="801"/>
+      <c r="HW12" s="933"/>
+      <c r="HX12" s="933"/>
+      <c r="HY12" s="933"/>
+      <c r="HZ12" s="933"/>
+      <c r="IA12" s="934"/>
       <c r="IB12" s="794"/>
-      <c r="IC12" s="805" t="s">
+      <c r="IC12" s="935" t="s">
         <v>488</v>
       </c>
-      <c r="ID12" s="806"/>
-      <c r="IE12" s="806"/>
-      <c r="IF12" s="806"/>
-      <c r="IG12" s="806"/>
-      <c r="IH12" s="807"/>
+      <c r="ID12" s="936"/>
+      <c r="IE12" s="936"/>
+      <c r="IF12" s="936"/>
+      <c r="IG12" s="936"/>
+      <c r="IH12" s="937"/>
       <c r="II12" s="729">
         <v>82.5</v>
       </c>
@@ -12933,14 +12936,14 @@
       <c r="HG13" s="692" t="s">
         <v>355</v>
       </c>
-      <c r="HH13" s="820" t="s">
+      <c r="HH13" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI13" s="821"/>
-      <c r="HJ13" s="821"/>
-      <c r="HK13" s="821"/>
-      <c r="HL13" s="821"/>
-      <c r="HM13" s="822"/>
+      <c r="HI13" s="907"/>
+      <c r="HJ13" s="907"/>
+      <c r="HK13" s="907"/>
+      <c r="HL13" s="907"/>
+      <c r="HM13" s="908"/>
       <c r="HN13" s="786" t="s">
         <v>507</v>
       </c>
@@ -13683,14 +13686,14 @@
       <c r="HG14" s="692" t="s">
         <v>458</v>
       </c>
-      <c r="HH14" s="820" t="s">
+      <c r="HH14" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI14" s="821"/>
-      <c r="HJ14" s="821"/>
-      <c r="HK14" s="821"/>
-      <c r="HL14" s="821"/>
-      <c r="HM14" s="822"/>
+      <c r="HI14" s="907"/>
+      <c r="HJ14" s="907"/>
+      <c r="HK14" s="907"/>
+      <c r="HL14" s="907"/>
+      <c r="HM14" s="908"/>
       <c r="HN14" s="786" t="s">
         <v>508</v>
       </c>
@@ -14432,23 +14435,23 @@
         <v>468</v>
       </c>
       <c r="HN15" s="789"/>
-      <c r="HO15" s="802" t="s">
+      <c r="HO15" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP15" s="803"/>
-      <c r="HQ15" s="803"/>
-      <c r="HR15" s="803"/>
-      <c r="HS15" s="803"/>
-      <c r="HT15" s="804"/>
+      <c r="HP15" s="919"/>
+      <c r="HQ15" s="919"/>
+      <c r="HR15" s="919"/>
+      <c r="HS15" s="919"/>
+      <c r="HT15" s="920"/>
       <c r="HU15" s="794"/>
-      <c r="HV15" s="799" t="s">
+      <c r="HV15" s="932" t="s">
         <v>482</v>
       </c>
-      <c r="HW15" s="800"/>
-      <c r="HX15" s="800"/>
-      <c r="HY15" s="800"/>
-      <c r="HZ15" s="800"/>
-      <c r="IA15" s="801"/>
+      <c r="HW15" s="933"/>
+      <c r="HX15" s="933"/>
+      <c r="HY15" s="933"/>
+      <c r="HZ15" s="933"/>
+      <c r="IA15" s="934"/>
       <c r="IB15" s="788" t="s">
         <v>528</v>
       </c>
@@ -15155,14 +15158,14 @@
         <v>469</v>
       </c>
       <c r="HN16" s="789"/>
-      <c r="HO16" s="802" t="s">
+      <c r="HO16" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP16" s="803"/>
-      <c r="HQ16" s="803"/>
-      <c r="HR16" s="803"/>
-      <c r="HS16" s="803"/>
-      <c r="HT16" s="804"/>
+      <c r="HP16" s="919"/>
+      <c r="HQ16" s="919"/>
+      <c r="HR16" s="919"/>
+      <c r="HS16" s="919"/>
+      <c r="HT16" s="920"/>
       <c r="HU16" s="786" t="s">
         <v>521</v>
       </c>
@@ -16624,14 +16627,14 @@
       <c r="HG18" s="692" t="s">
         <v>183</v>
       </c>
-      <c r="HH18" s="820" t="s">
+      <c r="HH18" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI18" s="821"/>
-      <c r="HJ18" s="821"/>
-      <c r="HK18" s="821"/>
-      <c r="HL18" s="821"/>
-      <c r="HM18" s="822"/>
+      <c r="HI18" s="907"/>
+      <c r="HJ18" s="907"/>
+      <c r="HK18" s="907"/>
+      <c r="HL18" s="907"/>
+      <c r="HM18" s="908"/>
       <c r="HN18" s="787" t="s">
         <v>509</v>
       </c>
@@ -18105,14 +18108,14 @@
       <c r="HG20" s="692" t="s">
         <v>289</v>
       </c>
-      <c r="HH20" s="820" t="s">
+      <c r="HH20" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI20" s="821"/>
-      <c r="HJ20" s="821"/>
-      <c r="HK20" s="821"/>
-      <c r="HL20" s="821"/>
-      <c r="HM20" s="822"/>
+      <c r="HI20" s="907"/>
+      <c r="HJ20" s="907"/>
+      <c r="HK20" s="907"/>
+      <c r="HL20" s="907"/>
+      <c r="HM20" s="908"/>
       <c r="HN20" s="788" t="s">
         <v>510</v>
       </c>
@@ -18856,14 +18859,14 @@
         <v>471</v>
       </c>
       <c r="HN21" s="789"/>
-      <c r="HO21" s="802" t="s">
+      <c r="HO21" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP21" s="803"/>
-      <c r="HQ21" s="803"/>
-      <c r="HR21" s="803"/>
-      <c r="HS21" s="803"/>
-      <c r="HT21" s="804"/>
+      <c r="HP21" s="919"/>
+      <c r="HQ21" s="919"/>
+      <c r="HR21" s="919"/>
+      <c r="HS21" s="919"/>
+      <c r="HT21" s="920"/>
       <c r="HU21" s="786" t="s">
         <v>521</v>
       </c>
@@ -19604,14 +19607,14 @@
         <v>472</v>
       </c>
       <c r="HN22" s="789"/>
-      <c r="HO22" s="802" t="s">
+      <c r="HO22" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP22" s="803"/>
-      <c r="HQ22" s="803"/>
-      <c r="HR22" s="803"/>
-      <c r="HS22" s="803"/>
-      <c r="HT22" s="804"/>
+      <c r="HP22" s="919"/>
+      <c r="HQ22" s="919"/>
+      <c r="HR22" s="919"/>
+      <c r="HS22" s="919"/>
+      <c r="HT22" s="920"/>
       <c r="HU22" s="786" t="s">
         <v>523</v>
       </c>
@@ -20321,14 +20324,14 @@
       <c r="HG23" s="692" t="s">
         <v>415</v>
       </c>
-      <c r="HH23" s="820" t="s">
+      <c r="HH23" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI23" s="821"/>
-      <c r="HJ23" s="821"/>
-      <c r="HK23" s="821"/>
-      <c r="HL23" s="821"/>
-      <c r="HM23" s="822"/>
+      <c r="HI23" s="907"/>
+      <c r="HJ23" s="907"/>
+      <c r="HK23" s="907"/>
+      <c r="HL23" s="907"/>
+      <c r="HM23" s="908"/>
       <c r="HN23" s="786" t="s">
         <v>511</v>
       </c>
@@ -21783,25 +21786,25 @@
       <c r="HG25" s="692" t="s">
         <v>414</v>
       </c>
-      <c r="HH25" s="820" t="s">
+      <c r="HH25" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI25" s="821"/>
-      <c r="HJ25" s="821"/>
-      <c r="HK25" s="821"/>
-      <c r="HL25" s="821"/>
-      <c r="HM25" s="822"/>
+      <c r="HI25" s="907"/>
+      <c r="HJ25" s="907"/>
+      <c r="HK25" s="907"/>
+      <c r="HL25" s="907"/>
+      <c r="HM25" s="908"/>
       <c r="HN25" s="788" t="s">
         <v>513</v>
       </c>
-      <c r="HO25" s="802" t="s">
+      <c r="HO25" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP25" s="803"/>
-      <c r="HQ25" s="803"/>
-      <c r="HR25" s="803"/>
-      <c r="HS25" s="803"/>
-      <c r="HT25" s="804"/>
+      <c r="HP25" s="919"/>
+      <c r="HQ25" s="919"/>
+      <c r="HR25" s="919"/>
+      <c r="HS25" s="919"/>
+      <c r="HT25" s="920"/>
       <c r="HU25" s="793"/>
       <c r="HV25" s="710">
         <v>70.5</v>
@@ -22504,14 +22507,14 @@
       <c r="HG26" s="692" t="s">
         <v>317</v>
       </c>
-      <c r="HH26" s="820" t="s">
+      <c r="HH26" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI26" s="821"/>
-      <c r="HJ26" s="821"/>
-      <c r="HK26" s="821"/>
-      <c r="HL26" s="821"/>
-      <c r="HM26" s="822"/>
+      <c r="HI26" s="907"/>
+      <c r="HJ26" s="907"/>
+      <c r="HK26" s="907"/>
+      <c r="HL26" s="907"/>
+      <c r="HM26" s="908"/>
       <c r="HN26" s="786" t="s">
         <v>511</v>
       </c>
@@ -24742,14 +24745,14 @@
         <v>170</v>
       </c>
       <c r="HN29" s="789"/>
-      <c r="HO29" s="802" t="s">
+      <c r="HO29" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP29" s="803"/>
-      <c r="HQ29" s="803"/>
-      <c r="HR29" s="803"/>
-      <c r="HS29" s="803"/>
-      <c r="HT29" s="804"/>
+      <c r="HP29" s="919"/>
+      <c r="HQ29" s="919"/>
+      <c r="HR29" s="919"/>
+      <c r="HS29" s="919"/>
+      <c r="HT29" s="920"/>
       <c r="HU29" s="786" t="s">
         <v>524</v>
       </c>
@@ -26223,14 +26226,14 @@
         <v>474</v>
       </c>
       <c r="HN31" s="789"/>
-      <c r="HO31" s="802" t="s">
+      <c r="HO31" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP31" s="803"/>
-      <c r="HQ31" s="803"/>
-      <c r="HR31" s="803"/>
-      <c r="HS31" s="803"/>
-      <c r="HT31" s="804"/>
+      <c r="HP31" s="919"/>
+      <c r="HQ31" s="919"/>
+      <c r="HR31" s="919"/>
+      <c r="HS31" s="919"/>
+      <c r="HT31" s="920"/>
       <c r="HU31" s="786" t="s">
         <v>524</v>
       </c>
@@ -29902,14 +29905,14 @@
         <v>478</v>
       </c>
       <c r="HN36" s="789"/>
-      <c r="HO36" s="802" t="s">
+      <c r="HO36" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP36" s="803"/>
-      <c r="HQ36" s="803"/>
-      <c r="HR36" s="803"/>
-      <c r="HS36" s="803"/>
-      <c r="HT36" s="804"/>
+      <c r="HP36" s="919"/>
+      <c r="HQ36" s="919"/>
+      <c r="HR36" s="919"/>
+      <c r="HS36" s="919"/>
+      <c r="HT36" s="920"/>
       <c r="HU36" s="786" t="s">
         <v>519</v>
       </c>
@@ -31366,14 +31369,14 @@
       <c r="HG38" s="692" t="s">
         <v>352</v>
       </c>
-      <c r="HH38" s="820" t="s">
+      <c r="HH38" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI38" s="821"/>
-      <c r="HJ38" s="821"/>
-      <c r="HK38" s="821"/>
-      <c r="HL38" s="821"/>
-      <c r="HM38" s="822"/>
+      <c r="HI38" s="907"/>
+      <c r="HJ38" s="907"/>
+      <c r="HK38" s="907"/>
+      <c r="HL38" s="907"/>
+      <c r="HM38" s="908"/>
       <c r="HN38" s="786" t="s">
         <v>517</v>
       </c>
@@ -31445,13 +31448,13 @@
       <c r="IN38" s="766" t="s">
         <v>393</v>
       </c>
-      <c r="IO38" s="910" t="s">
+      <c r="IO38" s="803" t="s">
         <v>499</v>
       </c>
-      <c r="IP38" s="911"/>
-      <c r="IQ38" s="911"/>
-      <c r="IR38" s="911"/>
-      <c r="IS38" s="912"/>
+      <c r="IP38" s="804"/>
+      <c r="IQ38" s="804"/>
+      <c r="IR38" s="804"/>
+      <c r="IS38" s="805"/>
       <c r="IT38" s="777"/>
       <c r="IU38" s="777"/>
       <c r="IV38" s="777"/>
@@ -32084,14 +32087,14 @@
       <c r="HG39" s="692" t="s">
         <v>320</v>
       </c>
-      <c r="HH39" s="820" t="s">
+      <c r="HH39" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI39" s="821"/>
-      <c r="HJ39" s="821"/>
-      <c r="HK39" s="821"/>
-      <c r="HL39" s="821"/>
-      <c r="HM39" s="822"/>
+      <c r="HI39" s="907"/>
+      <c r="HJ39" s="907"/>
+      <c r="HK39" s="907"/>
+      <c r="HL39" s="907"/>
+      <c r="HM39" s="908"/>
       <c r="HN39" s="786" t="s">
         <v>508</v>
       </c>
@@ -32805,25 +32808,25 @@
       <c r="HG40" s="692" t="s">
         <v>425</v>
       </c>
-      <c r="HH40" s="820" t="s">
+      <c r="HH40" s="906" t="s">
         <v>464</v>
       </c>
-      <c r="HI40" s="821"/>
-      <c r="HJ40" s="821"/>
-      <c r="HK40" s="821"/>
-      <c r="HL40" s="821"/>
-      <c r="HM40" s="822"/>
+      <c r="HI40" s="907"/>
+      <c r="HJ40" s="907"/>
+      <c r="HK40" s="907"/>
+      <c r="HL40" s="907"/>
+      <c r="HM40" s="908"/>
       <c r="HN40" s="788" t="s">
         <v>511</v>
       </c>
-      <c r="HO40" s="802" t="s">
+      <c r="HO40" s="918" t="s">
         <v>482</v>
       </c>
-      <c r="HP40" s="803"/>
-      <c r="HQ40" s="803"/>
-      <c r="HR40" s="803"/>
-      <c r="HS40" s="803"/>
-      <c r="HT40" s="804"/>
+      <c r="HP40" s="919"/>
+      <c r="HQ40" s="919"/>
+      <c r="HR40" s="919"/>
+      <c r="HS40" s="919"/>
+      <c r="HT40" s="920"/>
       <c r="HU40" s="793"/>
       <c r="HV40" s="710">
         <v>73</v>
@@ -33794,13 +33797,13 @@
       <c r="DS44" s="427" t="s">
         <v>189</v>
       </c>
-      <c r="DY44" s="876"/>
-      <c r="DZ44" s="876"/>
-      <c r="EA44" s="876"/>
-      <c r="EB44" s="876"/>
-      <c r="EC44" s="876"/>
-      <c r="ED44" s="876"/>
-      <c r="EE44" s="876"/>
+      <c r="DY44" s="838"/>
+      <c r="DZ44" s="838"/>
+      <c r="EA44" s="838"/>
+      <c r="EB44" s="838"/>
+      <c r="EC44" s="838"/>
+      <c r="ED44" s="838"/>
+      <c r="EE44" s="838"/>
       <c r="EF44" s="507" t="s">
         <v>255</v>
       </c>
@@ -33862,12 +33865,12 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="37"/>
-      <c r="Z45" s="875" t="s">
+      <c r="Z45" s="904" t="s">
         <v>122</v>
       </c>
-      <c r="AA45" s="825"/>
-      <c r="AB45" s="825"/>
-      <c r="AC45" s="825"/>
+      <c r="AA45" s="808"/>
+      <c r="AB45" s="808"/>
+      <c r="AC45" s="808"/>
       <c r="AD45" s="41"/>
       <c r="AE45" s="464" t="s">
         <v>123</v>
@@ -33916,33 +33919,33 @@
       <c r="BY45" s="20"/>
       <c r="BZ45" s="22"/>
       <c r="CA45" s="20"/>
-      <c r="CC45" s="825" t="s">
+      <c r="CC45" s="808" t="s">
         <v>144</v>
       </c>
-      <c r="CD45" s="825"/>
-      <c r="CE45" s="825"/>
-      <c r="CF45" s="825"/>
-      <c r="CG45" s="825"/>
-      <c r="CR45" s="825" t="s">
+      <c r="CD45" s="808"/>
+      <c r="CE45" s="808"/>
+      <c r="CF45" s="808"/>
+      <c r="CG45" s="808"/>
+      <c r="CR45" s="808" t="s">
         <v>157</v>
       </c>
-      <c r="CS45" s="825"/>
-      <c r="CT45" s="825"/>
-      <c r="CU45" s="825"/>
-      <c r="CV45" s="825"/>
+      <c r="CS45" s="808"/>
+      <c r="CT45" s="808"/>
+      <c r="CU45" s="808"/>
+      <c r="CV45" s="808"/>
       <c r="DG45" s="466" t="s">
         <v>190</v>
       </c>
       <c r="DH45" s="466"/>
       <c r="DI45" s="466"/>
-      <c r="DM45" s="833" t="s">
+      <c r="DM45" s="806" t="s">
         <v>211</v>
       </c>
-      <c r="DN45" s="833"/>
-      <c r="DO45" s="833"/>
-      <c r="DP45" s="833"/>
-      <c r="DQ45" s="833"/>
-      <c r="DR45" s="833"/>
+      <c r="DN45" s="806"/>
+      <c r="DO45" s="806"/>
+      <c r="DP45" s="806"/>
+      <c r="DQ45" s="806"/>
+      <c r="DR45" s="806"/>
       <c r="DS45" s="465" t="s">
         <v>197</v>
       </c>
@@ -33951,15 +33954,15 @@
       <c r="DV45" s="465"/>
       <c r="DW45" s="465"/>
       <c r="DX45" s="465"/>
-      <c r="EF45" s="824" t="s">
+      <c r="EF45" s="807" t="s">
         <v>213</v>
       </c>
-      <c r="EG45" s="825"/>
-      <c r="EH45" s="825"/>
-      <c r="EI45" s="825"/>
-      <c r="EJ45" s="825"/>
-      <c r="EK45" s="825"/>
-      <c r="EL45" s="825"/>
+      <c r="EG45" s="808"/>
+      <c r="EH45" s="808"/>
+      <c r="EI45" s="808"/>
+      <c r="EJ45" s="808"/>
+      <c r="EK45" s="808"/>
+      <c r="EL45" s="808"/>
       <c r="EM45" s="466" t="s">
         <v>261</v>
       </c>
@@ -34071,13 +34074,13 @@
       <c r="BO46" s="30"/>
       <c r="BP46" s="34"/>
       <c r="BQ46" s="30"/>
-      <c r="CR46" s="825" t="s">
+      <c r="CR46" s="808" t="s">
         <v>158</v>
       </c>
-      <c r="CS46" s="825"/>
-      <c r="CT46" s="825"/>
-      <c r="CU46" s="825"/>
-      <c r="CV46" s="825"/>
+      <c r="CS46" s="808"/>
+      <c r="CT46" s="808"/>
+      <c r="CU46" s="808"/>
+      <c r="CV46" s="808"/>
       <c r="DG46" s="465" t="s">
         <v>191</v>
       </c>
@@ -34086,13 +34089,13 @@
       <c r="DJ46" s="458"/>
       <c r="DK46" s="458"/>
       <c r="DL46" s="458"/>
-      <c r="DM46" s="833" t="s">
+      <c r="DM46" s="806" t="s">
         <v>194</v>
       </c>
-      <c r="DN46" s="833"/>
-      <c r="DO46" s="833"/>
-      <c r="DP46" s="833"/>
-      <c r="DQ46" s="833"/>
+      <c r="DN46" s="806"/>
+      <c r="DO46" s="806"/>
+      <c r="DP46" s="806"/>
+      <c r="DQ46" s="806"/>
       <c r="DR46" s="459"/>
       <c r="DS46" s="466" t="s">
         <v>198</v>
@@ -34102,14 +34105,14 @@
       <c r="DV46" s="466"/>
       <c r="DW46" s="466"/>
       <c r="DX46" s="466"/>
-      <c r="EF46" s="824" t="s">
+      <c r="EF46" s="807" t="s">
         <v>214</v>
       </c>
-      <c r="EG46" s="825"/>
-      <c r="EH46" s="825"/>
-      <c r="EI46" s="825"/>
-      <c r="EJ46" s="825"/>
-      <c r="EK46" s="825"/>
+      <c r="EG46" s="808"/>
+      <c r="EH46" s="808"/>
+      <c r="EI46" s="808"/>
+      <c r="EJ46" s="808"/>
+      <c r="EK46" s="808"/>
       <c r="EM46" s="466" t="s">
         <v>262</v>
       </c>
@@ -34194,14 +34197,14 @@
       <c r="DJ47" s="458"/>
       <c r="DK47" s="458"/>
       <c r="DL47" s="458"/>
-      <c r="DM47" s="833" t="s">
+      <c r="DM47" s="806" t="s">
         <v>195</v>
       </c>
-      <c r="DN47" s="833"/>
-      <c r="DO47" s="833"/>
-      <c r="DP47" s="833"/>
-      <c r="DQ47" s="833"/>
-      <c r="DR47" s="833"/>
+      <c r="DN47" s="806"/>
+      <c r="DO47" s="806"/>
+      <c r="DP47" s="806"/>
+      <c r="DQ47" s="806"/>
+      <c r="DR47" s="806"/>
       <c r="DS47" s="466" t="s">
         <v>213</v>
       </c>
@@ -34405,6 +34408,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="JS3:JW3"/>
+    <mergeCell ref="HV15:IA15"/>
+    <mergeCell ref="JN3:JR3"/>
+    <mergeCell ref="JD3:JH3"/>
+    <mergeCell ref="HO16:HT16"/>
+    <mergeCell ref="IC12:IH12"/>
+    <mergeCell ref="IC9:IH9"/>
+    <mergeCell ref="HO21:HT21"/>
+    <mergeCell ref="JI3:JM3"/>
+    <mergeCell ref="HO22:HT22"/>
+    <mergeCell ref="II3:IN3"/>
+    <mergeCell ref="IY3:JC3"/>
+    <mergeCell ref="IT3:IX3"/>
+    <mergeCell ref="IO3:IS3"/>
+    <mergeCell ref="IC3:IH3"/>
+    <mergeCell ref="HO15:HT15"/>
+    <mergeCell ref="HO12:HT12"/>
+    <mergeCell ref="HV3:IA3"/>
+    <mergeCell ref="HO9:HT9"/>
+    <mergeCell ref="HO3:HT3"/>
+    <mergeCell ref="HO7:HT7"/>
+    <mergeCell ref="HO10:HT10"/>
+    <mergeCell ref="HV12:IA12"/>
+    <mergeCell ref="HO31:HT31"/>
+    <mergeCell ref="HO25:HT25"/>
+    <mergeCell ref="HO40:HT40"/>
+    <mergeCell ref="HH23:HM23"/>
+    <mergeCell ref="HH25:HM25"/>
+    <mergeCell ref="HH26:HM26"/>
+    <mergeCell ref="HH38:HM38"/>
+    <mergeCell ref="HH39:HM39"/>
+    <mergeCell ref="HO36:HT36"/>
+    <mergeCell ref="HO29:HT29"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="EF45:EL45"/>
+    <mergeCell ref="HH3:HM3"/>
+    <mergeCell ref="HH40:HM40"/>
+    <mergeCell ref="HH8:HM8"/>
+    <mergeCell ref="HH13:HM13"/>
+    <mergeCell ref="HH14:HM14"/>
+    <mergeCell ref="HH18:HM18"/>
+    <mergeCell ref="HH20:HM20"/>
+    <mergeCell ref="EF3:EJ3"/>
+    <mergeCell ref="HB3:HG3"/>
+    <mergeCell ref="DM45:DR45"/>
+    <mergeCell ref="GC3:GH3"/>
+    <mergeCell ref="CC45:CG45"/>
+    <mergeCell ref="CR45:CV45"/>
+    <mergeCell ref="CM3:CQ3"/>
+    <mergeCell ref="CR46:CV46"/>
+    <mergeCell ref="DM46:DQ46"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="CM1:CQ1"/>
+    <mergeCell ref="DB3:DF3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="BX3:CB3"/>
+    <mergeCell ref="AT3:AX3"/>
+    <mergeCell ref="AO3:AS3"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="BN3:BR3"/>
+    <mergeCell ref="Z45:AC45"/>
+    <mergeCell ref="DY44:EE44"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="CW3:DA3"/>
+    <mergeCell ref="CH3:CL3"/>
+    <mergeCell ref="DG3:DL3"/>
+    <mergeCell ref="CC3:CG3"/>
+    <mergeCell ref="CR3:CV3"/>
+    <mergeCell ref="BD3:BH3"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="BS3:BW3"/>
     <mergeCell ref="GP3:GU3"/>
     <mergeCell ref="DM3:DQ3"/>
     <mergeCell ref="IO38:IS38"/>
@@ -34421,82 +34500,6 @@
     <mergeCell ref="ES3:EW3"/>
     <mergeCell ref="EM3:EQ3"/>
     <mergeCell ref="DY3:EC3"/>
-    <mergeCell ref="DY44:EE44"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="CW3:DA3"/>
-    <mergeCell ref="CH3:CL3"/>
-    <mergeCell ref="DG3:DL3"/>
-    <mergeCell ref="CC3:CG3"/>
-    <mergeCell ref="CR3:CV3"/>
-    <mergeCell ref="BD3:BH3"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="BS3:BW3"/>
-    <mergeCell ref="CR46:CV46"/>
-    <mergeCell ref="DM46:DQ46"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="CM1:CQ1"/>
-    <mergeCell ref="DB3:DF3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="BX3:CB3"/>
-    <mergeCell ref="AT3:AX3"/>
-    <mergeCell ref="AO3:AS3"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="BN3:BR3"/>
-    <mergeCell ref="Z45:AC45"/>
-    <mergeCell ref="BY2:CA2"/>
-    <mergeCell ref="EF45:EL45"/>
-    <mergeCell ref="HH3:HM3"/>
-    <mergeCell ref="HH40:HM40"/>
-    <mergeCell ref="HH8:HM8"/>
-    <mergeCell ref="HH13:HM13"/>
-    <mergeCell ref="HH14:HM14"/>
-    <mergeCell ref="HH18:HM18"/>
-    <mergeCell ref="HH20:HM20"/>
-    <mergeCell ref="EF3:EJ3"/>
-    <mergeCell ref="HB3:HG3"/>
-    <mergeCell ref="DM45:DR45"/>
-    <mergeCell ref="GC3:GH3"/>
-    <mergeCell ref="CC45:CG45"/>
-    <mergeCell ref="CR45:CV45"/>
-    <mergeCell ref="CM3:CQ3"/>
-    <mergeCell ref="HO31:HT31"/>
-    <mergeCell ref="HO25:HT25"/>
-    <mergeCell ref="HO40:HT40"/>
-    <mergeCell ref="HH23:HM23"/>
-    <mergeCell ref="HH25:HM25"/>
-    <mergeCell ref="HH26:HM26"/>
-    <mergeCell ref="HH38:HM38"/>
-    <mergeCell ref="HH39:HM39"/>
-    <mergeCell ref="HO36:HT36"/>
-    <mergeCell ref="HO29:HT29"/>
-    <mergeCell ref="HO21:HT21"/>
-    <mergeCell ref="JI3:JM3"/>
-    <mergeCell ref="HO22:HT22"/>
-    <mergeCell ref="II3:IN3"/>
-    <mergeCell ref="IY3:JC3"/>
-    <mergeCell ref="IT3:IX3"/>
-    <mergeCell ref="IO3:IS3"/>
-    <mergeCell ref="IC3:IH3"/>
-    <mergeCell ref="HO15:HT15"/>
-    <mergeCell ref="HO12:HT12"/>
-    <mergeCell ref="HV3:IA3"/>
-    <mergeCell ref="HO9:HT9"/>
-    <mergeCell ref="HO3:HT3"/>
-    <mergeCell ref="HO7:HT7"/>
-    <mergeCell ref="HO10:HT10"/>
-    <mergeCell ref="HV12:IA12"/>
-    <mergeCell ref="JS3:JW3"/>
-    <mergeCell ref="HV15:IA15"/>
-    <mergeCell ref="JN3:JR3"/>
-    <mergeCell ref="JD3:JH3"/>
-    <mergeCell ref="HO16:HT16"/>
-    <mergeCell ref="IC12:IH12"/>
-    <mergeCell ref="IC9:IH9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="42" fitToWidth="2" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
